--- a/etc/vbtest/SelectRange.xlsx
+++ b/etc/vbtest/SelectRange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="17115" windowHeight="12270" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="17115" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="LeftTop" sheetId="2" r:id="rId1"/>
@@ -14,22 +14,26 @@
     <sheet name="RightBottom_NoSpace" sheetId="20" r:id="rId5"/>
     <sheet name="SelectCellJoin" sheetId="7" r:id="rId6"/>
     <sheet name="CellJoin" sheetId="14" r:id="rId7"/>
-    <sheet name="Indent" sheetId="9" r:id="rId8"/>
-    <sheet name="Auto" sheetId="12" r:id="rId9"/>
-    <sheet name="Auto (2)" sheetId="13" r:id="rId10"/>
-    <sheet name="Auto_HorizontalLine" sheetId="16" r:id="rId11"/>
-    <sheet name="Auto_HorizontalLine (2)" sheetId="17" r:id="rId12"/>
-    <sheet name="Auto_VerticalLine" sheetId="18" r:id="rId13"/>
-    <sheet name="Auto_VerticalLine (2)" sheetId="19" r:id="rId14"/>
-    <sheet name="Full" sheetId="10" r:id="rId15"/>
-    <sheet name="Full_MergeCells" sheetId="15" r:id="rId16"/>
+    <sheet name="Top_ManualJoin" sheetId="21" r:id="rId8"/>
+    <sheet name="Center_ManualJoin" sheetId="22" r:id="rId9"/>
+    <sheet name="Bottom_ManualJoin" sheetId="23" r:id="rId10"/>
+    <sheet name="Indent" sheetId="24" r:id="rId11"/>
+    <sheet name="Unindent" sheetId="9" r:id="rId12"/>
+    <sheet name="Auto" sheetId="12" r:id="rId13"/>
+    <sheet name="Auto (2)" sheetId="13" r:id="rId14"/>
+    <sheet name="Auto_HorizontalLine" sheetId="16" r:id="rId15"/>
+    <sheet name="Auto_HorizontalLine (2)" sheetId="17" r:id="rId16"/>
+    <sheet name="Auto_VerticalLine" sheetId="18" r:id="rId17"/>
+    <sheet name="Auto_VerticalLine (2)" sheetId="19" r:id="rId18"/>
+    <sheet name="Full" sheetId="10" r:id="rId19"/>
+    <sheet name="Full_MergeCells" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>B2</t>
     <phoneticPr fontId="1"/>
@@ -297,10 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$C$3:$G$13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$C$2:$H$14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>$XEX$1048564:$XFD$1048576</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$B$2:$H$14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -377,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -784,13 +796,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +924,111 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,41 +1070,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,49 +1085,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,7 +1394,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -1402,6 +1531,712 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickTop="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="71"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="71"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="71"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="71"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="71"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="71"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="71"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="71"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="72"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="71"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="71"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="71"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="71"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="71"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="71"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickTop="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickTop="1">
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H14"/>
@@ -1417,7 +2252,7 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -1685,12 +2520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -1701,266 +2536,123 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="C3" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>53</v>
-      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>65</v>
-      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1969,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H14"/>
@@ -1985,256 +2677,123 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="C3" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>53</v>
-      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>65</v>
-      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2246,12 +2805,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2262,266 +2821,123 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>13</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="C3" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>53</v>
-      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>59</v>
-      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>65</v>
-      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2530,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H14"/>
@@ -2546,256 +2962,123 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>13</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="C3" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>53</v>
-      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>59</v>
-      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>65</v>
-      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2807,7 +3090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H14"/>
@@ -2823,7 +3106,7 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2942,150 +3225,6 @@
       <c r="H14" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" thickTop="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D7:F9"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3227,6 +3366,150 @@
       <c r="H14" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickTop="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:F9"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3516,7 +3799,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEO1048534" workbookViewId="0">
+    <sheetView topLeftCell="XEO1048534" workbookViewId="0">
       <selection activeCell="XFA1048570" sqref="XFA1048570"/>
     </sheetView>
   </sheetViews>
@@ -3524,12 +3807,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1048564" spans="16378:16384" ht="14.25" thickBot="1">
@@ -3721,27 +4004,27 @@
     <row r="7" spans="1:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -3856,7 +4139,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="1"/>
@@ -3865,25 +4148,25 @@
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="1"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="1"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="1"/>
@@ -3892,7 +4175,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="1"/>
@@ -3948,7 +4231,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3957,35 +4240,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickTop="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3994,7 +4277,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4003,7 +4286,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4012,25 +4295,25 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4039,7 +4322,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4048,7 +4331,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4057,7 +4340,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4066,7 +4349,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4075,7 +4358,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4089,7 +4372,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet11"/>
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4098,271 +4381,128 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickTop="1">
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
